--- a/Lab Work/Lab 04 28.02.25/Bike_Sales_2022.xlsx
+++ b/Lab Work/Lab 04 28.02.25/Bike_Sales_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patti\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME-402-Data-Analytics-Essentials\Lab Work\Lab 04 28.02.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4EEFD3-6EB4-4E70-8772-31DE18A8A5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02361E39-2AAB-4BA3-A01D-E9A989D16F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{7CAAB7AE-A369-4955-B9DE-C208F5C91809}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7CAAB7AE-A369-4955-B9DE-C208F5C91809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -163,7 +166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,12 +203,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -225,9 +228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -371,7 +374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,28 +526,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525B9D6A-D5C1-4F76-BD5B-3E6C87C1BCED}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44595</v>
       </c>
@@ -659,7 +664,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44623</v>
       </c>
@@ -718,7 +723,7 @@
         <v>37120</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44654</v>
       </c>
@@ -777,7 +782,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44684</v>
       </c>
@@ -836,7 +841,7 @@
         <v>19040</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44716</v>
       </c>
@@ -901,6 +906,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cf0ffbd-cd96-4ba4-bd4f-bd34e8409846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ef7ae401-bd17-41a5-97cb-ef653218410e" xsi:nil="true"/>
+    <SharedWithUsers xmlns="ef7ae401-bd17-41a5-97cb-ef653218410e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="6cf0ffbd-cd96-4ba4-bd4f-bd34e8409846" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100198F9F34832A35489A19D5E200F54CC8" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4667fbbc43b4318bb111874a548e13d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cf0ffbd-cd96-4ba4-bd4f-bd34e8409846" xmlns:ns3="ef7ae401-bd17-41a5-97cb-ef653218410e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="750e449e756990df47b00428a15370bb" ns2:_="" ns3:_="">
     <xsd:import namespace="6cf0ffbd-cd96-4ba4-bd4f-bd34e8409846"/>
@@ -1137,42 +1170,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cf0ffbd-cd96-4ba4-bd4f-bd34e8409846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ef7ae401-bd17-41a5-97cb-ef653218410e" xsi:nil="true"/>
-    <SharedWithUsers xmlns="ef7ae401-bd17-41a5-97cb-ef653218410e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="6cf0ffbd-cd96-4ba4-bd4f-bd34e8409846" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B04D3CD2-73FC-4FED-93B7-ACF88E11F20E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760C691E-A697-446B-9F2E-CBB2E537F9CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6cf0ffbd-cd96-4ba4-bd4f-bd34e8409846"/>
+    <ds:schemaRef ds:uri="ef7ae401-bd17-41a5-97cb-ef653218410e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15070F1-7718-4B2C-95EA-0C6B01345ECF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15070F1-7718-4B2C-95EA-0C6B01345ECF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760C691E-A697-446B-9F2E-CBB2E537F9CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B04D3CD2-73FC-4FED-93B7-ACF88E11F20E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6cf0ffbd-cd96-4ba4-bd4f-bd34e8409846"/>
+    <ds:schemaRef ds:uri="ef7ae401-bd17-41a5-97cb-ef653218410e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>